--- a/SEC_Analysis_Results/30% Rejection.xlsx
+++ b/SEC_Analysis_Results/30% Rejection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\SEC_Analysis_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341AC550-BB1D-4BD0-9935-66412C8B0329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6143A8-1B64-4160-AE87-933A7835719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
